--- a/results/I3_N5_M3_T15_C150_DepCentral_s1_P2_res.xlsx
+++ b/results/I3_N5_M3_T15_C150_DepCentral_s1_P2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>353.3264527965046</v>
+        <v>335.9596863901648</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01099991798400879</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.64645279649577</v>
+        <v>23.95968639016486</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>57.32000000000876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>267.36</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -758,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>11.30463804208573</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>7.55409141525918</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>5.064995193736195</v>
       </c>
     </row>
     <row r="8">
@@ -914,7 +914,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13.78831096928433</v>
+        <v>13.91429431698742</v>
       </c>
     </row>
     <row r="9">
@@ -922,7 +922,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13.69536195791427</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -930,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>126.9700000000003</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>127.65</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>136.8550000000003</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>127.2550000000003</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>123.4800000000003</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>128.1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>128.3249999999988</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>114.65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>127.7649999999988</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>126.9849999999988</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>81.05499999999913</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>83.09999999999999</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>68</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>76.23999999999913</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>77.71999999999912</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>66.5</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>65.61000000000051</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>67.42000000000051</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>70.04500000000051</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>66.6350000000005</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>155.5150000000009</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>151.3300000000009</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>152.0850000000009</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>159.6700000000009</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>160.0600000000009</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>128.1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>128.3249999999988</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>114.65</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>127.7649999999988</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>126.9849999999988</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>126.9700000000003</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>127.65</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>136.8550000000003</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>127.2550000000003</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>123.4800000000003</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42">
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>155.5150000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1469,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>151.3300000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1480,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>152.0850000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>159.6700000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>160.0600000000009</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.515000000000867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1670,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>1.330000000000889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1681,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>2.085000000000873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>9.670000000000869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1703,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>10.06000000000088</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1816,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1827,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1838,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1849,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1860,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1871,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1882,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1893,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1904,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1915,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>9.390000000000001</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1926,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>10.08</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1937,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>12.78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1948,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>10.21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1959,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>8.93</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1970,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>12.71</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -1981,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>10.4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -1992,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>13.6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2003,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -2014,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>10.14</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2028,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2053,61 +2053,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
